--- a/static/xlsxforms/School_Coordinator_File.xlsx
+++ b/static/xlsxforms/School_Coordinator_File.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">unique_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">first_name</t>
@@ -31,34 +31,25 @@
     <t xml:space="preserve">last_name</t>
   </si>
   <si>
-    <t xml:space="preserve">age</t>
+    <t xml:space="preserve">username</t>
   </si>
   <si>
     <t xml:space="preserve">email_address</t>
   </si>
   <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact</t>
+  </si>
+  <si>
     <t xml:space="preserve">school_name</t>
   </si>
   <si>
-    <t xml:space="preserve">school_address</t>
-  </si>
-  <si>
     <t xml:space="preserve">school_contact</t>
   </si>
   <si>
-    <t xml:space="preserve">personal_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile_photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annual_income</t>
+    <t xml:space="preserve">position</t>
   </si>
 </sst>
 </file>
@@ -169,27 +160,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,15 +208,6 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
